--- a/reference/type_decisions/type_decision_table.xlsx
+++ b/reference/type_decisions/type_decision_table.xlsx
@@ -7471,12 +7471,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>text</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>text</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -11494,12 +11494,12 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -11602,12 +11602,12 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -11629,12 +11629,12 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -11656,12 +11656,12 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -11683,12 +11683,12 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -25345,12 +25345,12 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>time</t>
         </is>
       </c>
       <c r="E926" t="inlineStr">
@@ -26884,12 +26884,12 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E983" t="inlineStr">
@@ -28720,12 +28720,12 @@
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1051" t="inlineStr">
@@ -29044,12 +29044,12 @@
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr">
@@ -29368,12 +29368,12 @@
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr">
@@ -29692,12 +29692,12 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1087" t="inlineStr">
@@ -30016,12 +30016,12 @@
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1099" t="inlineStr">
@@ -30340,12 +30340,12 @@
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1111" t="inlineStr">
@@ -30664,12 +30664,12 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr">
@@ -30988,12 +30988,12 @@
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -31312,12 +31312,12 @@
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1147" t="inlineStr">
@@ -31636,12 +31636,12 @@
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1159" t="inlineStr">
@@ -31960,12 +31960,12 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1171" t="inlineStr">
@@ -32284,12 +32284,12 @@
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1183" t="inlineStr">
@@ -32608,12 +32608,12 @@
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1195" t="inlineStr">
@@ -32932,12 +32932,12 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr">
@@ -33256,12 +33256,12 @@
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr">
